--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UI programy\REFPefromProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71FC7A6-C0FA-411B-AD42-CD832A753B72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B26970-FD4A-4AE3-98C9-7E04A20CCC66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="2835" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -137,10 +137,7 @@
     <t>ReportsDownloadPath</t>
   </si>
   <si>
-    <t xml:space="preserve">Data\Temp </t>
-  </si>
-  <si>
-    <t>Data\Temp\Result</t>
+    <t>Data\Temp\</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -627,7 +624,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UI programy\REFPefromProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B26970-FD4A-4AE3-98C9-7E04A20CCC66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA58D3B-F88B-447E-9A05-C3126C4A1FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="2835" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Credential</t>
   </si>
   <si>
-    <t>System1_Credential</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Data\Temp\</t>
+  </si>
+  <si>
+    <t>&lt;please enter here credentilas name&gt;</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -574,10 +574,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -608,23 +608,23 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
